--- a/vic/Analitika-stroski.xlsx
+++ b/vic/Analitika-stroski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\alesk\GitHub\streamlit\vic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A99F4E-6743-40AD-9DE1-9B78E13D4109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ACC634-24C1-4B48-AE5D-4A542BA52475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
+    <workbookView xWindow="3510" yWindow="360" windowWidth="28800" windowHeight="18495" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,9 +1115,11 @@
       <c r="B40" s="3">
         <v>3</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <v>175</v>
+      </c>
       <c r="D40" s="3">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">

--- a/vic/Analitika-stroski.xlsx
+++ b/vic/Analitika-stroski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\alesk\GitHub\streamlit\vic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ACC634-24C1-4B48-AE5D-4A542BA52475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C6A8C-935A-436C-85D1-859CDB7EDCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="360" windowWidth="28800" windowHeight="18495" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8979A74D-2A87-4DF1-8B6C-D706B15A8B2E}">
   <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,12 @@
       <c r="B41" s="3">
         <v>4</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3">
+        <v>147</v>
+      </c>
+      <c r="D41" s="3">
+        <v>68</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">

--- a/vic/Analitika-stroski.xlsx
+++ b/vic/Analitika-stroski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\alesk\GitHub\streamlit\vic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C6A8C-935A-436C-85D1-859CDB7EDCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F74015-7B15-4743-B095-200303D956B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8979A74D-2A87-4DF1-8B6C-D706B15A8B2E}">
   <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +645,25 @@
       <c r="D6" s="3">
         <v>54</v>
       </c>
+      <c r="F6" s="1">
+        <v>2025</v>
+      </c>
+      <c r="G6" s="3">
+        <f>SUM(C34:C38)</f>
+        <v>1138</v>
+      </c>
+      <c r="H6" s="3">
+        <f>MIN(C38:C49)</f>
+        <v>129</v>
+      </c>
+      <c r="I6" s="3">
+        <f>MAX(C38:C49)</f>
+        <v>267</v>
+      </c>
+      <c r="J6" s="3">
+        <f>ROUND(AVERAGE(C38:C49),0)</f>
+        <v>195</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1143,7 +1162,12 @@
       <c r="B42" s="3">
         <v>5</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3">
+        <v>129</v>
+      </c>
+      <c r="D42" s="3">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">

--- a/vic/Analitika-stroski.xlsx
+++ b/vic/Analitika-stroski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\alesk\GitHub\streamlit\vic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F74015-7B15-4743-B095-200303D956B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5303D7DE-82C6-45A1-A7A7-BE09B4630154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8979A74D-2A87-4DF1-8B6C-D706B15A8B2E}">
   <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="H6" s="3">
         <f>MIN(C38:C49)</f>
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I6" s="3">
         <f>MAX(C38:C49)</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="J6" s="3">
         <f>ROUND(AVERAGE(C38:C49),0)</f>
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,12 @@
       <c r="B43" s="3">
         <v>6</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3">
+        <v>131</v>
+      </c>
+      <c r="D43" s="3">
+        <v>52</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -1185,7 +1190,12 @@
       <c r="B44" s="3">
         <v>7</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3">
+        <v>125</v>
+      </c>
+      <c r="D44" s="3">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">

--- a/vic/Analitika-stroski.xlsx
+++ b/vic/Analitika-stroski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\alesk\GitHub\streamlit\vic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5303D7DE-82C6-45A1-A7A7-BE09B4630154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE29CD-6C37-4F34-A030-43020F7D6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
+    <workbookView xWindow="3930" yWindow="675" windowWidth="28800" windowHeight="15285" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8979A74D-2A87-4DF1-8B6C-D706B15A8B2E}">
   <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -662,7 +662,7 @@
       </c>
       <c r="J6" s="3">
         <f>ROUND(AVERAGE(C38:C49),0)</f>
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,12 @@
       <c r="B45" s="3">
         <v>8</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3">
+        <v>130</v>
+      </c>
+      <c r="D45" s="3">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">

--- a/vic/Analitika-stroski.xlsx
+++ b/vic/Analitika-stroski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\alesk\GitHub\streamlit\vic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE29CD-6C37-4F34-A030-43020F7D6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708E4E58-70D4-4074-BA1C-2202CF7D082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="675" windowWidth="28800" windowHeight="15285" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8979A74D-2A87-4DF1-8B6C-D706B15A8B2E}">
   <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,20 +649,20 @@
         <v>2025</v>
       </c>
       <c r="G6" s="3">
-        <f>SUM(C34:C38)</f>
-        <v>1138</v>
+        <f>SUM(C34:C49)</f>
+        <v>3407</v>
       </c>
       <c r="H6" s="3">
         <f>MIN(C38:C49)</f>
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="I6" s="3">
         <f>MAX(C38:C49)</f>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J6" s="3">
         <f>ROUND(AVERAGE(C38:C49),0)</f>
-        <v>170</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -678,6 +678,25 @@
       <c r="D7" s="3">
         <v>33</v>
       </c>
+      <c r="F7" s="1">
+        <v>2026</v>
+      </c>
+      <c r="G7" s="3">
+        <f>SUM(C50:C61)</f>
+        <v>346</v>
+      </c>
+      <c r="H7" s="3">
+        <f>MIN(C50:C61)</f>
+        <v>170</v>
+      </c>
+      <c r="I7" s="3">
+        <f>MAX(C50:C61)</f>
+        <v>176</v>
+      </c>
+      <c r="J7" s="3">
+        <f>ROUND(AVERAGE(C50:C61),0)</f>
+        <v>173</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1149,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="D41" s="3">
         <v>68</v>
@@ -1163,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="3">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="D42" s="3">
         <v>58</v>
@@ -1177,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="3">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D43" s="3">
         <v>52</v>
@@ -1191,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="3">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="D44" s="3">
         <v>62</v>
@@ -1205,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="3">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="D45" s="3">
         <v>54</v>
@@ -1218,7 +1237,12 @@
       <c r="B46" s="3">
         <v>9</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3">
+        <v>185</v>
+      </c>
+      <c r="D46" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -1227,7 +1251,12 @@
       <c r="B47" s="3">
         <v>10</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3">
+        <v>191</v>
+      </c>
+      <c r="D47" s="3">
+        <v>70</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -1236,88 +1265,156 @@
       <c r="B48" s="3">
         <v>11</v>
       </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <v>225</v>
+      </c>
+      <c r="D48" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2025</v>
       </c>
       <c r="B49" s="3">
         <v>12</v>
       </c>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="C49" s="3">
+        <v>229</v>
+      </c>
+      <c r="D49" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>176</v>
+      </c>
+      <c r="D50" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>170</v>
+      </c>
+      <c r="D51" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5</v>
+      </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6</v>
+      </c>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B56" s="3">
+        <v>7</v>
+      </c>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B57" s="3">
+        <v>8</v>
+      </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B58" s="3">
+        <v>9</v>
+      </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B59" s="3">
+        <v>10</v>
+      </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B60" s="3">
+        <v>11</v>
+      </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B61" s="3">
+        <v>12</v>
+      </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>

--- a/vic/Analitika-stroski.xlsx
+++ b/vic/Analitika-stroski.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\alesk\GitHub\streamlit\vic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708E4E58-70D4-4074-BA1C-2202CF7D082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B7C88F-5967-400F-BFAA-4208C9F0941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{76F86FE6-7339-4098-B30D-846BFBB65180}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,19 +683,19 @@
       </c>
       <c r="G7" s="3">
         <f>SUM(C50:C61)</f>
-        <v>346</v>
+        <v>486</v>
       </c>
       <c r="H7" s="3">
         <f>MIN(C50:C61)</f>
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="I7" s="3">
         <f>MAX(C50:C61)</f>
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="J7" s="3">
         <f>ROUND(AVERAGE(C50:C61),0)</f>
-        <v>173</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="3">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="D50" s="3">
         <v>87</v>
@@ -1308,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="3">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="D51" s="3">
         <v>70</v>
